--- a/Extensive VisionAI (EVA5)/05_Coding DrillDown/Receiptive Field Calculation v2.xlsx
+++ b/Extensive VisionAI (EVA5)/05_Coding DrillDown/Receiptive Field Calculation v2.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iimblr1-my.sharepoint.com/personal/vidhyav17_iimb_ac_in/Documents/Documents/EVA/Calculations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Googe Drive\Computer Vision\Extensive VisionAI (EVA5)\05_Coding DrillDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD212BAA-D99B-49CE-923E-314C350E775E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2CC187-4B58-4CFC-8FF9-E415786473F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Receptive Field Calculation" sheetId="2" r:id="rId1"/>
     <sheet name="GoogLENet-Inception (2)" sheetId="3" r:id="rId2"/>
     <sheet name="Formula" sheetId="1" r:id="rId3"/>
+    <sheet name="VS NEt" sheetId="4" r:id="rId4"/>
+    <sheet name="VS Net 2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>Kernal</t>
   </si>
@@ -168,6 +172,21 @@
   </si>
   <si>
     <t>https://medium.com/@abhigoku10/topic-dl03-receptive-field-in-cnn-and-the-math-behind-it-e17565212a20</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>conv - dila=2</t>
+  </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>depthwise</t>
+  </si>
+  <si>
+    <t>Avg pool</t>
   </si>
 </sst>
 </file>
@@ -1362,6 +1381,1065 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Receiptive Field</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VS NEt'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'VS NEt'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>conv - dila=2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1x1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1x1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>depthwise</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1x1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Avg pool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VS NEt'!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F005-42B8-A27A-175C2CFBFB1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2029730608"/>
+        <c:axId val="43095984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2029730608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Layer Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43095984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43095984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Receiptive Field</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2029730608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Receiptive Field</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VS Net 2'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'VS Net 2'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Layer 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Layer 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Layer 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Layer 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Layer 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Layer 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Layer 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Layer 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Layer 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Layer 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Layer 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Layer 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Layer 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Layer 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Layer 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Layer 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Layer 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Layer 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Layer 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VS Net 2'!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5546-448D-A8BB-CE3D6820C8AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2029730608"/>
+        <c:axId val="43095984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2029730608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Layer Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43095984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43095984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Receiptive Field</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2029730608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1442,6 +2520,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -1939,6 +3097,998 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2793,6 +4943,274 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86508</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129092</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029EE266-78DF-4B40-8ADB-72232F71165A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>129829</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B715600E-9978-40A2-AF7D-3DCDC9BB430C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12047220" y="16998"/>
+          <a:ext cx="5570509" cy="2114084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1038989</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B24F89-4588-4564-BA84-7A409408BCBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3741420"/>
+          <a:ext cx="5062349" cy="2919121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5939680-6730-443B-B229-5723E00A6155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="2941320"/>
+          <a:ext cx="4259580" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Note</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> on RF Calculation for Inception Layer : </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>For each of the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> inception layer, the path that provides maximum receptive field is considered for the next layer. In this case, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>5X5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>convolution provides the maximum RF jump. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274B94D9-424C-4E04-A9DE-5D1BFEA5D8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3093,7 +5511,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3881,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5123B7-8E9F-4668-9602-0C98959612EC}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4013,15 +6431,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E19" si="0">G3</f>
+        <f t="shared" ref="E4:E17" si="0">G3</f>
         <v>56</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F19" si="1">ROUND(((E4-(2*C4)-B4)/D4)+1,0)</f>
+        <f t="shared" ref="F4:F17" si="1">ROUND(((E4-(2*C4)-B4)/D4)+1,0)</f>
         <v>54</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G20" si="2">G3/D4</f>
+        <f t="shared" ref="G4:G16" si="2">G3/D4</f>
         <v>56</v>
       </c>
       <c r="H4" s="3">
@@ -4063,11 +6481,11 @@
         <v>28</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:H20" si="4">I4</f>
+        <f t="shared" ref="H5:H17" si="4">I4</f>
         <v>19</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5:I20" si="5">H5+(B5-1)*J5</f>
+        <f t="shared" ref="I5:I17" si="5">H5+(B5-1)*J5</f>
         <v>27</v>
       </c>
       <c r="J5" s="3">
@@ -4658,7 +7076,1512 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2031B1B7-03BE-4C2F-A5C3-A8B04CAD8B62}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3">
+        <f>ROUND(((E2-(2*C2)-B2)/D2)+1,0)</f>
+        <v>28</v>
+      </c>
+      <c r="G2" s="3">
+        <f>E2/D2</f>
+        <v>32</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <f>H2+(B2-1)*J2</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <f>G2</f>
+        <v>32</v>
+      </c>
+      <c r="F3" s="3">
+        <f>ROUND(((E3-(2*C3)-B3)/D3)+1,0)</f>
+        <v>28</v>
+      </c>
+      <c r="G3" s="3">
+        <f>G2/D3</f>
+        <v>32</v>
+      </c>
+      <c r="H3" s="3">
+        <f>I2</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3+(B3-1)*J3</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <f>J2*D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E17" si="0">G3</f>
+        <v>32</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F17" si="1">ROUND(((E4-(2*C4)-B4)/D4)+1,0)</f>
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G16" si="2">G3/D4</f>
+        <v>16</v>
+      </c>
+      <c r="H4" s="3">
+        <f>I3</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <f>H4+(B4-1)*J4</f>
+        <v>6</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J14" si="3">J3*D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H17" si="4">I4</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I17" si="5">H5+(B5-1)*J5</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="J15" s="3">
+        <f>J14*D14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="J16" s="3">
+        <f>J15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="3" t="e">
+        <f>G16/D17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="J17" s="3">
+        <f>J16*D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K26" r:id="rId1" xr:uid="{5AD77202-7E9D-4FB5-96A0-50B02471685F}"/>
+    <hyperlink ref="K27" r:id="rId2" display="https://fomoro.com/research/article/receptive-field-calculator" xr:uid="{F58B7566-2747-4982-B4E2-699254119FDB}"/>
+    <hyperlink ref="K28" r:id="rId3" xr:uid="{6A607B31-634F-4571-92EB-B9B4A203ECB5}"/>
+    <hyperlink ref="K29" r:id="rId4" xr:uid="{13D47F58-B4BF-484A-B0C9-6B3C12FA5CD1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F0CA3-B054-49DC-9245-155BEB28FD34}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="21" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <f>((E2-(2*C2)-B2)/D2)+1</f>
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2/D2</f>
+        <v>32</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2+(B2-1)*J2</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <f>F2</f>
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <f>((E3-(2*C3)-B3)/D3)+1</f>
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <f>G2/D3</f>
+        <v>32</v>
+      </c>
+      <c r="H3" s="2">
+        <f>I2</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3+(B3-1)*J3</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <f>J2*D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>F3</f>
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <f>((E4-(2*C4)-B4)/D4)+1</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G20" si="0">G3/D4</f>
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <f>I3</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <f>H4+(B4-1)*J4</f>
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J14" si="1">J3*D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E19" si="2">F4</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F10" si="3">((E5-(2*C5)-B5)/D5)+1</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H20" si="4">I4</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I20" si="5">H5+(B5-1)*J5</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="F11" s="2">
+        <f>ROUND(ABS(((E11-(2*C11)-B11)/D11)+1),0)</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F19" si="6">ROUND(ABS(((E12-(2*C12)-B12)/D12)+1),0)</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="J15" s="2">
+        <f>J14*D14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="J16" s="2">
+        <f>J15*D15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="J17" s="2">
+        <f>J16*D16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="J18" s="2">
+        <f>J17*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ref="J19:J20" si="7">J18*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0A04E7BB4EF0E45B6C1D43A731F3853" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f8ada452fd91b4978def33b30bb33fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="730c88fa-df4b-4116-94a2-0c84fca8abeb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e5e05e0fca20ddb33106b52119cd2c8" ns3:_="">
     <xsd:import namespace="730c88fa-df4b-4116-94a2-0c84fca8abeb"/>
@@ -4820,22 +8743,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DEC9268-EE39-45D9-896E-4D3D67472742}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="730c88fa-df4b-4116-94a2-0c84fca8abeb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FF1EC1-210F-432F-A246-EE7715252780}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B62D9AD-4DAB-40BF-B274-E85CE1CE57BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4851,28 +8783,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FF1EC1-210F-432F-A246-EE7715252780}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DEC9268-EE39-45D9-896E-4D3D67472742}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="730c88fa-df4b-4116-94a2-0c84fca8abeb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>